--- a/data/trans_camb/IP18A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,88</t>
+          <t>1,97; 11,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,17</t>
+          <t>0,0; 4,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,82</t>
+          <t>0,0; 41,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,35</t>
+          <t>-1,67; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,67</t>
+          <t>-1,69; 4,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,0</t>
+          <t>-4,61; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,22</t>
+          <t>0,94; 6,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,72</t>
+          <t>-0,71; 2,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 25,23</t>
+          <t>-0,82; 21,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,52</t>
+          <t>-1,36; 1,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,2</t>
+          <t>-1,69; 1,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,55</t>
+          <t>-0,64; 5,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,98</t>
+          <t>-1,6; 0,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,53</t>
+          <t>-1,16; 1,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,88</t>
+          <t>-1,04; 7,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,84</t>
+          <t>-1,06; 0,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,01</t>
+          <t>-0,99; 0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,71</t>
+          <t>-0,36; 5,08</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,66; 180,25</t>
+          <t>-60,59; 152,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,32; 142,33</t>
+          <t>-72,08; 124,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 522,24</t>
+          <t>-38,96; 703,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 142,54</t>
+          <t>-71,94; 150,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,96; 218,56</t>
+          <t>-56,36; 232,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 853,12</t>
+          <t>-66,56; 834,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,44; 82,8</t>
+          <t>-54,19; 86,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 99,79</t>
+          <t>-48,22; 85,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 384,64</t>
+          <t>-32,2; 361,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,5</t>
+          <t>-2,52; 3,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,65</t>
+          <t>-2,28; 3,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 23,19</t>
+          <t>1,86; 21,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; -0,12</t>
+          <t>-4,83; 0,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,94</t>
+          <t>-2,53; 3,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 25,4</t>
+          <t>2,45; 23,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,93</t>
+          <t>-3,0; 1,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,85</t>
+          <t>-1,53; 3,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 19,93</t>
+          <t>3,52; 18,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-80,1; 380,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,54; 452,95</t>
+          <t>-63,47; 425,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 2098,24</t>
+          <t>27,9; 2464,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 150,55</t>
+          <t>-100,0; 134,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-64,66; 263,28</t>
+          <t>-61,12; 249,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,33; 1227,99</t>
+          <t>16,98; 1374,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 75,89</t>
+          <t>-77,7; 71,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 172,45</t>
+          <t>-43,11; 183,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>90,68; 1007,37</t>
+          <t>71,72; 984,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,93</t>
+          <t>-0,69; 1,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,49</t>
+          <t>-1,13; 1,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,19</t>
+          <t>1,29; 8,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,45</t>
+          <t>-1,73; 0,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,41</t>
+          <t>-1,01; 1,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 9,28</t>
+          <t>0,66; 8,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,88</t>
+          <t>-0,81; 0,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,07</t>
+          <t>-0,6; 1,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,93</t>
+          <t>1,88; 7,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 198,16</t>
+          <t>-35,28; 162,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 153,33</t>
+          <t>-48,43; 125,59</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>47,73; 737,05</t>
+          <t>56,05; 750,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-70,66; 41,58</t>
+          <t>-70,15; 46,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 122,91</t>
+          <t>-43,02; 119,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,04; 702,54</t>
+          <t>26,07; 662,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 66,01</t>
+          <t>-40,27; 74,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 82,55</t>
+          <t>-29,51; 83,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>86,96; 473,39</t>
+          <t>90,66; 503,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,99</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 4,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 3,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 11,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 6,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 2,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 25,01</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>751,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1207,71%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>1,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 11,28</t>
+          <t>-1,64; 1,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,62</t>
+          <t>-1,28; 1,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,89</t>
+          <t>-1,09; 7,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 4,34</t>
+          <t>-1,52; 1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,64</t>
+          <t>-1,69; 1,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 0,0</t>
+          <t>-0,94; 5,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,32</t>
+          <t>-1,14; 0,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,75</t>
+          <t>-1,01; 0,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 21,47</t>
+          <t>-0,27; 4,44</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>112,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>103,36%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>-14,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>751,2%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>145,79%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1194,36%</t>
+          <t>103,19%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,24; 116,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,04; 186,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 829,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,13; 163,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,32; 117,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,3; 578,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,33; 86,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,72; 97,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,61; 377,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>9,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,34</t>
+          <t>-5,19; 0,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,16</t>
+          <t>-2,65; 3,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,82</t>
+          <t>1,98; 24,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,99</t>
+          <t>-2,92; 3,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,58</t>
+          <t>-1,97; 3,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,56</t>
+          <t>1,38; 23,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,91</t>
+          <t>-3,05; 0,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,93</t>
+          <t>-1,41; 2,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,08</t>
+          <t>3,37; 18,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>-70,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,64%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>334,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>110,12%</t>
+          <t>392,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-36,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>103,55%</t>
+          <t>355,39%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,59; 152,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,08; 124,98</t>
+          <t>-62,86; 284,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 703,08</t>
+          <t>16,61; 1336,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,94; 150,38</t>
+          <t>-82,79; 332,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 232,97</t>
+          <t>-57,26; 406,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,56; 834,19</t>
+          <t>3,18; 1949,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 86,21</t>
+          <t>-78,61; 64,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,22; 85,76</t>
+          <t>-39,58; 178,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 361,36</t>
+          <t>88,23; 992,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,09</t>
+          <t>3,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,53</t>
+          <t>-1,76; 0,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,59</t>
+          <t>-1,06; 1,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 21,34</t>
+          <t>0,5; 8,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,15</t>
+          <t>-0,55; 1,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,76</t>
+          <t>-0,88; 1,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 23,78</t>
+          <t>1,17; 7,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,02</t>
+          <t>-0,7; 0,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,03</t>
+          <t>-0,56; 1,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 18,93</t>
+          <t>1,69; 6,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>-32,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>404,46%</t>
+          <t>216,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-70,91%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>349,9%</t>
+          <t>250,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-36,09%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>369,81%</t>
+          <t>232,3%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,9; 41,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,47; 425,03</t>
+          <t>-45,66; 128,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,9; 2464,44</t>
+          <t>4,91; 630,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 134,82</t>
+          <t>-30,48; 171,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,12; 249,1</t>
+          <t>-42,0; 157,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,98; 1374,37</t>
+          <t>45,05; 667,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-77,7; 71,16</t>
+          <t>-34,51; 74,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,11; 183,14</t>
+          <t>-27,2; 86,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>71,72; 984,99</t>
+          <t>78,34; 469,72</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,84</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 1,34</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 8,47</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 0,46</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 1,5</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 8,61</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 0,95</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 1,08</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 7,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>40,7%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>13,13%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>256,69%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-32,6%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>221,23%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>13,69%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>237,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-35,28; 162,0</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-48,43; 125,59</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>56,05; 750,22</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-70,15; 46,63</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-43,02; 119,57</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>26,07; 662,55</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-40,27; 74,32</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-29,51; 83,67</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>90,66; 503,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
